--- a/Excel学习.xlsx
+++ b/Excel学习.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC3DDE-DFE8-470B-B53E-4CC5385D1C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7470FE9-A508-4D69-9EE0-73A2DE6B39A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="15" windowWidth="26820" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13755" yWindow="1500" windowWidth="18810" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="错误与solution" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -210,10 +215,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,7 +504,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,18 +517,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -532,7 +537,7 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -550,7 +555,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -559,21 +564,21 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="e">
+      <c r="A8" s="7" t="e">
         <v>#NAME?</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -582,21 +587,21 @@
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -623,7 +628,7 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="e">
+      <c r="A14" s="7" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -632,7 +637,7 @@
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -641,7 +646,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
